--- a/medicine/Psychotrope/Moulin_à_café/Moulin_à_café.xlsx
+++ b/medicine/Psychotrope/Moulin_à_café/Moulin_à_café.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moulin_%C3%A0_caf%C3%A9</t>
+          <t>Moulin_à_café</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le moulin à café est un appareil qui permet de moudre des grains de café. Le passionné et collectionneur de moulins à café est un mylokaphephile. Les premiers moulins à café apparaissent au XVIIe siècle. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moulin_%C3%A0_caf%C3%A9</t>
+          <t>Moulin_à_café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arrivée du café en Europe au XVIe siècle implique la création d’un objet spécifique, le « moulin à café », permettant de broyer cette graine en conservant au maximum ses arômes.
 Il apparaît rapidement que les moulins à épices sont partiellement adaptés. Pour broyer le café, la première méthode connue est l’utilisation d’un mortier avec des graines torréfiées.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moulin_%C3%A0_caf%C3%A9</t>
+          <t>Moulin_à_café</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Moulins à café Peugeot</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peugeot est notamment connu en France grâce à ses voitures, mais il a commencé au XIXe siècle par des moulins à café de ménage de forme cubique, qui sont toujours commercialisés.
 Peugeot débute dans l'industrie des moulins à café vers 1840 dans le Doubs. La famille Peugeot, originaire du pays de Montbéliard, avait sur ses terres des moulins à eau qui ont marqué les emplacements des futures usines.
